--- a/examples/dummy-values.xlsx
+++ b/examples/dummy-values.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">fault_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummy</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
   </cols>
@@ -404,9 +401,6 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
